--- a/infinite/Excel/MonsterInfo_.xlsx
+++ b/infinite/Excel/MonsterInfo_.xlsx
@@ -34,10 +34,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,7 +78,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -83,11 +111,17 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,6 +469,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="15"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="21" r="1">
@@ -445,7 +480,7 @@
         <v>string</v>
       </c>
       <c r="C1" s="1" t="str">
-        <v>string</v>
+        <v>string[]</v>
       </c>
       <c r="D1" s="1" t="str">
         <v>string[]</v>
@@ -454,31 +489,31 @@
         <v>string[]</v>
       </c>
       <c r="F1" s="1" t="str">
+        <v>int</v>
+      </c>
+      <c r="G1" s="1" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="H1" s="1" t="str">
         <v>string[]</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="I1" s="1" t="str">
         <v>float[]</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="J1" s="1" t="str">
         <v>vector3[]</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="K1" s="1" t="str">
         <v>int[]</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="L1" s="1" t="str">
         <v>vector3[]</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="M1" s="1" t="str">
         <v>int[]</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="N1" s="1" t="str">
         <v>string[]</v>
-      </c>
-      <c r="N1" s="1" t="str">
-        <v>vector3[]</v>
       </c>
       <c r="O1" s="1" t="str">
         <v>vector3[]</v>
@@ -486,6 +521,13 @@
       <c r="P1" s="1" t="str">
         <v>vector3[]</v>
       </c>
+      <c r="Q1" s="1" t="str">
+        <v>vector3[]</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="2">
       <c r="A2" s="1" t="str">
@@ -504,45 +546,92 @@
         <v>Moves</v>
       </c>
       <c r="F2" s="1" t="str">
+        <v>MoveSpeed</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <v>Die</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="H2" s="1" t="str">
         <v>Attacks</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="I2" s="1" t="str">
         <v>AttackTimePoints</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="J2" s="1" t="str">
         <v>AttackOffsets</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="K2" s="1" t="str">
         <v>AttackLengths</v>
       </c>
-      <c r="K2" s="1" t="str">
+      <c r="L2" s="1" t="str">
         <v>AttackSizes</v>
       </c>
-      <c r="L2" s="1" t="str">
+      <c r="M2" s="1" t="str">
         <v>Damages</v>
       </c>
-      <c r="M2" s="1" t="str">
+      <c r="N2" s="1" t="str">
         <v>EffectIds</v>
       </c>
-      <c r="N2" s="1" t="str">
+      <c r="O2" s="1" t="str">
         <v>EffectPosOffsets</v>
       </c>
-      <c r="O2" s="1" t="str">
+      <c r="P2" s="1" t="str">
         <v>EffectRotOffsets</v>
       </c>
-      <c r="P2" s="1" t="str">
+      <c r="Q2" s="1" t="str">
         <v>EffectScales</v>
       </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
     <row customHeight="true" ht="21" r="5">
       <c r="A5" s="1">
         <v>1</v>
@@ -551,47 +640,54 @@
         <v>蛇女</v>
       </c>
       <c r="C5" s="1" t="str">
-        <v>2ED2DEEA</v>
-      </c>
-      <c r="D5">
+        <v>0CD6E9E6</v>
+      </c>
+      <c r="D5" s="2">
         <v>318618</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>318617</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
+        <v>300</v>
+      </c>
+      <c r="G5" s="2">
         <v>318619</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="2">
         <v>318616</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.35</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="J5" s="1" t="str">
         <v>0|50|0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>300</v>
       </c>
-      <c r="K5" s="1" t="str">
+      <c r="L5" s="1" t="str">
         <v>50|50|100</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>100</v>
       </c>
-      <c r="M5">
+      <c r="N5" s="2">
         <v>125704</v>
       </c>
-      <c r="N5" s="1" t="str">
-        <v>0|80|50</v>
-      </c>
       <c r="O5" s="1" t="str">
+        <v>60|0|0</v>
+      </c>
+      <c r="P5" s="1" t="str">
         <v>0|0|-90</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="Q5" s="1" t="str">
         <v>1|0.8|1</v>
       </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="6">
       <c r="A6" s="1">
@@ -601,47 +697,54 @@
         <v>蜘蛛</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>2ED2DEEA</v>
+        <v>0CD6E9E6</v>
       </c>
       <c r="D6" s="1" t="str">
         <v>336664|336668</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>336669</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
+        <v>250</v>
+      </c>
+      <c r="G6" s="2">
         <v>336816</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="H6" s="1" t="str">
         <v>336673|336670|336672</v>
       </c>
-      <c r="H6" s="1" t="str">
-        <v>0.35|0.35|0.35</v>
-      </c>
       <c r="I6" s="1" t="str">
+        <v>1|0.95|1.2</v>
+      </c>
+      <c r="J6" s="1" t="str">
         <v>0|50|0||0|50|0||0|50|0</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="K6" s="1" t="str">
         <v>300|300|300</v>
       </c>
-      <c r="K6" s="1" t="str">
+      <c r="L6" s="1" t="str">
         <v>50|50|100||50|50|100||50|50|100</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="M6" s="1" t="str">
         <v>100|100|100</v>
       </c>
-      <c r="M6" s="1" t="str">
-        <v>125704|125704|125704</v>
-      </c>
       <c r="N6" s="1" t="str">
-        <v>0|80|50||0|80|50||0|80|50</v>
+        <v>384353|101411|297932</v>
       </c>
       <c r="O6" s="1" t="str">
-        <v>0|0|-90||0|0|-90||0|0|-90</v>
+        <v>170|0|-50||200|0|-120||100|0|-125</v>
       </c>
       <c r="P6" s="1" t="str">
-        <v>1|0.8|1||1|0.8|1||1|0.8|1</v>
-      </c>
+        <v>0|-60|0||0|30|10||0|0|0</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <v>0.5|0.5|0.5||1|1|1||0.55|1|1</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="7">
       <c r="A7" s="1">
@@ -651,47 +754,54 @@
         <v>蜘蛛精</v>
       </c>
       <c r="C7" s="1" t="str">
-        <v>2ED2DEEA</v>
+        <v>0CD6E9E6</v>
       </c>
       <c r="D7" s="1" t="str">
         <v>336664|336668</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>338467</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
+        <v>250</v>
+      </c>
+      <c r="G7" s="2">
         <v>338468</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="H7" s="1" t="str">
         <v>338464|338466</v>
       </c>
-      <c r="H7" s="1" t="str">
-        <v>0.35|0.35</v>
-      </c>
       <c r="I7" s="1" t="str">
+        <v>0.8|0.8</v>
+      </c>
+      <c r="J7" s="1" t="str">
         <v>0|50|0||0|50|0</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="K7" s="1" t="str">
         <v>300|300</v>
       </c>
-      <c r="K7" s="1" t="str">
+      <c r="L7" s="1" t="str">
         <v>50|50|100||50|50|100</v>
       </c>
-      <c r="L7" s="1" t="str">
+      <c r="M7" s="1" t="str">
         <v>100|100</v>
       </c>
-      <c r="M7" s="1" t="str">
-        <v>125704|125704</v>
-      </c>
       <c r="N7" s="1" t="str">
-        <v>0|80|50||0|80|50</v>
+        <v>297932|101407</v>
       </c>
       <c r="O7" s="1" t="str">
-        <v>0|0|-90||0|0|-90</v>
+        <v>100|0|-125||100|0|-125</v>
       </c>
       <c r="P7" s="1" t="str">
-        <v>1|0.8|1||1|0.8|1</v>
-      </c>
+        <v>0|0|0||0|0|0</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <v>0.55|1|1||1|1|1</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="8">
       <c r="A8" s="1">
@@ -701,7 +811,7 @@
         <v>龙</v>
       </c>
       <c r="C8" s="1" t="str">
-        <v>2ED2DEEA</v>
+        <v>0CD6E9E6</v>
       </c>
       <c r="D8" s="1" t="str">
         <v>160627|250400|250399|160627</v>
@@ -709,39 +819,46 @@
       <c r="E8" s="1">
         <v>160628</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
+        <v>250</v>
+      </c>
+      <c r="G8" s="1">
         <v>-1</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="H8" s="1" t="str">
         <v>250094|250095</v>
       </c>
-      <c r="H8" s="1" t="str">
-        <v>0.35|0.35</v>
-      </c>
       <c r="I8" s="1" t="str">
+        <v>1.6|1.3</v>
+      </c>
+      <c r="J8" s="1" t="str">
         <v>0|50|0||0|50|0</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="K8" s="1" t="str">
         <v>300|300</v>
       </c>
-      <c r="K8" s="1" t="str">
+      <c r="L8" s="1" t="str">
         <v>50|50|100||50|50|100</v>
       </c>
-      <c r="L8" s="1" t="str">
+      <c r="M8" s="1" t="str">
         <v>100|100</v>
       </c>
-      <c r="M8" s="1" t="str">
-        <v>125704|125704</v>
-      </c>
       <c r="N8" s="1" t="str">
-        <v>0|80|50||0|80|50</v>
+        <v>168947|92843</v>
       </c>
       <c r="O8" s="1" t="str">
-        <v>0|0|-90||0|0|-90</v>
-      </c>
-      <c r="P8" s="1" t="str">
-        <v>1|0.8|1||1|0.8|1</v>
-      </c>
+        <v>0|0|0||0|0|0</v>
+      </c>
+      <c r="P8" s="3" t="str">
+        <v>0|0|0||0|0|0</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <v>1|1|1||1|1|1</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="9">
       <c r="A9" s="1">
@@ -751,7 +868,7 @@
         <v>丧尸</v>
       </c>
       <c r="C9" s="1" t="str">
-        <v>2ED2DEEA</v>
+        <v>0CD6E9E6</v>
       </c>
       <c r="D9" s="1" t="str">
         <v>284991|268599</v>
@@ -759,39 +876,46 @@
       <c r="E9" s="1" t="str">
         <v>285740|269161|285826</v>
       </c>
-      <c r="F9">
-        <v>285139</v>
+      <c r="F9" s="1">
+        <v>150</v>
       </c>
       <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
         <v>285210</v>
       </c>
-      <c r="H9" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="1">
+        <v>0.55</v>
+      </c>
+      <c r="J9" s="1" t="str">
         <v>0|50|0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>300</v>
       </c>
-      <c r="K9" s="1" t="str">
+      <c r="L9" s="1" t="str">
         <v>50|50|100</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>100</v>
       </c>
-      <c r="M9">
-        <v>125704</v>
-      </c>
-      <c r="N9" s="1" t="str">
-        <v>0|80|50</v>
+      <c r="N9" s="2">
+        <v>31260</v>
       </c>
       <c r="O9" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>5|0|0</v>
       </c>
       <c r="P9" s="1" t="str">
-        <v>1|0.8|1</v>
-      </c>
+        <v>0|-30|180</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="10">
       <c r="A10" s="1">
@@ -801,7 +925,7 @@
         <v>角色</v>
       </c>
       <c r="C10" s="1" t="str">
-        <v>2ED2DEEA</v>
+        <v>0CD6E9E6</v>
       </c>
       <c r="D10" s="1">
         <v>285445</v>
@@ -809,50 +933,277 @@
       <c r="E10" s="1" t="str">
         <v>285336|285372|280652|280671|280723|284685|280699|280780|</v>
       </c>
-      <c r="F10">
-        <v>281693</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <v>219129|280916|280914</v>
+      <c r="F10" s="1">
+        <v>150</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-1</v>
       </c>
       <c r="H10" s="1" t="str">
-        <v>0.35|0.35|0.35</v>
+        <v>219129|280914|280916</v>
       </c>
       <c r="I10" s="1" t="str">
+        <v>0.2|0.4|0.3</v>
+      </c>
+      <c r="J10" s="1" t="str">
         <v>0|50|0||0|50|0||0|50|0</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="K10" s="1" t="str">
         <v>300|300|300</v>
       </c>
-      <c r="K10" s="1" t="str">
+      <c r="L10" s="1" t="str">
         <v>50|50|100||50|50|100||50|50|100</v>
       </c>
-      <c r="L10" s="1" t="str">
+      <c r="M10" s="1" t="str">
         <v>100|100|100</v>
       </c>
-      <c r="M10" s="1" t="str">
-        <v>125704|125704|125704</v>
-      </c>
       <c r="N10" s="1" t="str">
-        <v>0|80|50||0|80|50||0|80|50</v>
+        <v>92838|135894|125704</v>
       </c>
       <c r="O10" s="1" t="str">
-        <v>0|0|-90||0|0|-90||0|0|-90</v>
+        <v>250|0|0||140|0|0||0|0|0</v>
       </c>
       <c r="P10" s="1" t="str">
-        <v>1|0.8|1||1|0.8|1||1|0.8|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="11"/>
-    <row customHeight="true" ht="21" r="12"/>
-    <row customHeight="true" ht="21" r="13"/>
-    <row customHeight="true" ht="21" r="14"/>
-    <row customHeight="true" ht="21" r="15"/>
-    <row customHeight="true" ht="21" r="16"/>
-    <row customHeight="true" ht="21" r="17"/>
-    <row customHeight="true" ht="21" r="18"/>
-    <row customHeight="true" ht="21" r="19"/>
-    <row customHeight="true" ht="21" r="20"/>
+        <v>0|0|0||0|0|-90||0|0|-90</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <v>0.5|0.5|0.5||0.5|0.5|0.5||1|1|1</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="14">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/infinite/Excel/MonsterInfo_.xlsx
+++ b/infinite/Excel/MonsterInfo_.xlsx
@@ -931,7 +931,7 @@
         <v>285445</v>
       </c>
       <c r="E10" s="1" t="str">
-        <v>285336|285372|280652|280671|280723|284685|280699|280780|</v>
+        <v>285336|285372|280652|280671|280723|284685|280699|280780</v>
       </c>
       <c r="F10" s="1">
         <v>150</v>

--- a/infinite/Excel/MonsterInfo_.xlsx
+++ b/infinite/Excel/MonsterInfo_.xlsx
@@ -975,69 +975,171 @@
       <c r="U10" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>蛇女</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <v>314F5569</v>
+      </c>
+      <c r="D11" s="2">
+        <v>318618</v>
+      </c>
+      <c r="E11" s="2">
+        <v>318617</v>
+      </c>
+      <c r="F11" s="2">
+        <v>300</v>
+      </c>
+      <c r="G11" s="2">
+        <v>318619</v>
+      </c>
+      <c r="H11" s="2">
+        <v>318616</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <v>0|100|0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>600</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <v>100|100|200</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="2">
+        <v>125704</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <v>60|0|0</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <v>2|1.6|2</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <v>蜘蛛精</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <v>314F5569</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <v>336664|336668</v>
+      </c>
+      <c r="E12" s="2">
+        <v>338467</v>
+      </c>
+      <c r="F12" s="2">
+        <v>250</v>
+      </c>
+      <c r="G12" s="2">
+        <v>338468</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <v>338464|338466</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <v>0.8|0.8</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <v>0|100|0||0|100|0</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <v>600|600</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <v>100|100|200||100|100|200</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <v>100|100</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <v>297932|101407</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <v>100|0|-125||100|0|-125</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <v>0|0|0||0|0|0</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <v>1.1|2|2||2|2|2</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <v>龙</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <v>314F5569</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <v>160627|250400|250399|160627</v>
+      </c>
+      <c r="E13" s="1">
+        <v>160628</v>
+      </c>
+      <c r="F13" s="2">
+        <v>250</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <v>250094|250095</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <v>1.6|1.3</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <v>0|100|0||0|100|0</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <v>600|600</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <v>100|100|200||100|100|200</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <v>100|100</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <v>168947|92843</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <v>0|0|0||0|0|0</v>
+      </c>
+      <c r="P13" s="3" t="str">
+        <v>0|0|0||0|0|0</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <v>2|2|2||2|2|2</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>

--- a/infinite/Excel/MonsterInfo_.xlsx
+++ b/infinite/Excel/MonsterInfo_.xlsx
@@ -640,7 +640,7 @@
         <v>蛇女</v>
       </c>
       <c r="C5" s="1" t="str">
-        <v>0CD6E9E6</v>
+        <v>3E882EFC</v>
       </c>
       <c r="D5" s="2">
         <v>318618</v>
@@ -697,7 +697,7 @@
         <v>蜘蛛</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>0CD6E9E6</v>
+        <v>3E882EFC</v>
       </c>
       <c r="D6" s="1" t="str">
         <v>336664|336668</v>
@@ -754,7 +754,7 @@
         <v>蜘蛛精</v>
       </c>
       <c r="C7" s="1" t="str">
-        <v>0CD6E9E6</v>
+        <v>3E882EFC</v>
       </c>
       <c r="D7" s="1" t="str">
         <v>336664|336668</v>
@@ -811,7 +811,7 @@
         <v>龙</v>
       </c>
       <c r="C8" s="1" t="str">
-        <v>0CD6E9E6</v>
+        <v>3E882EFC</v>
       </c>
       <c r="D8" s="1" t="str">
         <v>160627|250400|250399|160627</v>
@@ -868,7 +868,7 @@
         <v>丧尸</v>
       </c>
       <c r="C9" s="1" t="str">
-        <v>0CD6E9E6</v>
+        <v>3E882EFC</v>
       </c>
       <c r="D9" s="1" t="str">
         <v>284991|268599</v>
@@ -925,7 +925,7 @@
         <v>角色</v>
       </c>
       <c r="C10" s="1" t="str">
-        <v>0CD6E9E6</v>
+        <v>3E882EFC</v>
       </c>
       <c r="D10" s="1">
         <v>285445</v>
@@ -975,171 +975,69 @@
       <c r="U10" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <v>蛇女</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <v>314F5569</v>
-      </c>
-      <c r="D11" s="2">
-        <v>318618</v>
-      </c>
-      <c r="E11" s="2">
-        <v>318617</v>
-      </c>
-      <c r="F11" s="2">
-        <v>300</v>
-      </c>
-      <c r="G11" s="2">
-        <v>318619</v>
-      </c>
-      <c r="H11" s="2">
-        <v>318616</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="J11" s="1" t="str">
-        <v>0|100|0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>600</v>
-      </c>
-      <c r="L11" s="1" t="str">
-        <v>100|100|200</v>
-      </c>
-      <c r="M11" s="1">
-        <v>100</v>
-      </c>
-      <c r="N11" s="2">
-        <v>125704</v>
-      </c>
-      <c r="O11" s="1" t="str">
-        <v>60|0|0</v>
-      </c>
-      <c r="P11" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="Q11" s="1" t="str">
-        <v>2|1.6|2</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <v>蜘蛛精</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <v>314F5569</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <v>336664|336668</v>
-      </c>
-      <c r="E12" s="2">
-        <v>338467</v>
-      </c>
-      <c r="F12" s="2">
-        <v>250</v>
-      </c>
-      <c r="G12" s="2">
-        <v>338468</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <v>338464|338466</v>
-      </c>
-      <c r="I12" s="1" t="str">
-        <v>0.8|0.8</v>
-      </c>
-      <c r="J12" s="1" t="str">
-        <v>0|100|0||0|100|0</v>
-      </c>
-      <c r="K12" s="1" t="str">
-        <v>600|600</v>
-      </c>
-      <c r="L12" s="1" t="str">
-        <v>100|100|200||100|100|200</v>
-      </c>
-      <c r="M12" s="1" t="str">
-        <v>100|100</v>
-      </c>
-      <c r="N12" s="1" t="str">
-        <v>297932|101407</v>
-      </c>
-      <c r="O12" s="1" t="str">
-        <v>100|0|-125||100|0|-125</v>
-      </c>
-      <c r="P12" s="1" t="str">
-        <v>0|0|0||0|0|0</v>
-      </c>
-      <c r="Q12" s="1" t="str">
-        <v>1.1|2|2||2|2|2</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <v>龙</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <v>314F5569</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <v>160627|250400|250399|160627</v>
-      </c>
-      <c r="E13" s="1">
-        <v>160628</v>
-      </c>
-      <c r="F13" s="2">
-        <v>250</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <v>250094|250095</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <v>1.6|1.3</v>
-      </c>
-      <c r="J13" s="1" t="str">
-        <v>0|100|0||0|100|0</v>
-      </c>
-      <c r="K13" s="1" t="str">
-        <v>600|600</v>
-      </c>
-      <c r="L13" s="1" t="str">
-        <v>100|100|200||100|100|200</v>
-      </c>
-      <c r="M13" s="1" t="str">
-        <v>100|100</v>
-      </c>
-      <c r="N13" s="1" t="str">
-        <v>168947|92843</v>
-      </c>
-      <c r="O13" s="1" t="str">
-        <v>0|0|0||0|0|0</v>
-      </c>
-      <c r="P13" s="3" t="str">
-        <v>0|0|0||0|0|0</v>
-      </c>
-      <c r="Q13" s="1" t="str">
-        <v>2|2|2||2|2|2</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>

--- a/infinite/Excel/MonsterInfo_.xlsx
+++ b/infinite/Excel/MonsterInfo_.xlsx
@@ -43,14 +43,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -473,736 +473,770 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>string[]</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>string[]</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>string[]</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>int</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>string[]</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>float[]</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>vector3[]</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>int[]</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>vector3[]</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>int[]</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>string[]</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>vector3[]</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>vector3[]</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>vector3[]</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>Des</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>PathStr</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>Idles</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>Moves</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>MoveSpeed</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>Die</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>Attacks</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" s="2" t="str">
         <v>AttackTimePoints</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="J2" s="2" t="str">
         <v>AttackOffsets</v>
       </c>
-      <c r="K2" s="1" t="str">
+      <c r="K2" s="2" t="str">
         <v>AttackLengths</v>
       </c>
-      <c r="L2" s="1" t="str">
+      <c r="L2" s="2" t="str">
         <v>AttackSizes</v>
       </c>
-      <c r="M2" s="1" t="str">
+      <c r="M2" s="2" t="str">
         <v>Damages</v>
       </c>
-      <c r="N2" s="1" t="str">
+      <c r="N2" s="2" t="str">
         <v>EffectIds</v>
       </c>
-      <c r="O2" s="1" t="str">
+      <c r="O2" s="2" t="str">
         <v>EffectPosOffsets</v>
       </c>
-      <c r="P2" s="1" t="str">
+      <c r="P2" s="2" t="str">
         <v>EffectRotOffsets</v>
       </c>
-      <c r="Q2" s="1" t="str">
+      <c r="Q2" s="2" t="str">
         <v>EffectScales</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>蛇女</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>3E882EFC</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>318618</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>318617</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>300</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>318619</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>318616</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>0.35</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>0|50|0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>300</v>
       </c>
-      <c r="L5" s="1" t="str">
+      <c r="L5" s="2" t="str">
         <v>50|50|100</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>100</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>125704</v>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="O5" s="2" t="str">
         <v>60|0|0</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="2" t="str">
         <v>0|0|-90</v>
       </c>
-      <c r="Q5" s="1" t="str">
+      <c r="Q5" s="2" t="str">
         <v>1|0.8|1</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>蜘蛛</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>3E882EFC</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>336664|336668</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>336669</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>250</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>336816</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>336673|336670|336672</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>1|0.95|1.2</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="J6" s="2" t="str">
         <v>0|50|0||0|50|0||0|50|0</v>
       </c>
-      <c r="K6" s="1" t="str">
+      <c r="K6" s="2" t="str">
         <v>300|300|300</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="L6" s="2" t="str">
         <v>50|50|100||50|50|100||50|50|100</v>
       </c>
-      <c r="M6" s="1" t="str">
+      <c r="M6" s="2" t="str">
         <v>100|100|100</v>
       </c>
-      <c r="N6" s="1" t="str">
+      <c r="N6" s="2" t="str">
         <v>384353|101411|297932</v>
       </c>
-      <c r="O6" s="1" t="str">
+      <c r="O6" s="2" t="str">
         <v>170|0|-50||200|0|-120||100|0|-125</v>
       </c>
-      <c r="P6" s="1" t="str">
+      <c r="P6" s="2" t="str">
         <v>0|-60|0||0|30|10||0|0|0</v>
       </c>
-      <c r="Q6" s="1" t="str">
+      <c r="Q6" s="2" t="str">
         <v>0.5|0.5|0.5||1|1|1||0.55|1|1</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>蜘蛛精</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>3E882EFC</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>336664|336668</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>338467</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>250</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>338468</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>338464|338466</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>0.8|0.8</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="J7" s="2" t="str">
         <v>0|50|0||0|50|0</v>
       </c>
-      <c r="K7" s="1" t="str">
+      <c r="K7" s="2" t="str">
         <v>300|300</v>
       </c>
-      <c r="L7" s="1" t="str">
+      <c r="L7" s="2" t="str">
         <v>50|50|100||50|50|100</v>
       </c>
-      <c r="M7" s="1" t="str">
+      <c r="M7" s="2" t="str">
         <v>100|100</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="N7" s="2" t="str">
         <v>297932|101407</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="2" t="str">
         <v>100|0|-125||100|0|-125</v>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="P7" s="2" t="str">
         <v>0|0|0||0|0|0</v>
       </c>
-      <c r="Q7" s="1" t="str">
+      <c r="Q7" s="2" t="str">
         <v>0.55|1|1||1|1|1</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>龙</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>3E882EFC</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>160627|250400|250399|160627</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>160628</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>250</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>-1</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="H8" s="2" t="str">
         <v>250094|250095</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>1.6|1.3</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="2" t="str">
         <v>0|50|0||0|50|0</v>
       </c>
-      <c r="K8" s="1" t="str">
+      <c r="K8" s="2" t="str">
         <v>300|300</v>
       </c>
-      <c r="L8" s="1" t="str">
+      <c r="L8" s="2" t="str">
         <v>50|50|100||50|50|100</v>
       </c>
-      <c r="M8" s="1" t="str">
+      <c r="M8" s="2" t="str">
         <v>100|100</v>
       </c>
-      <c r="N8" s="1" t="str">
+      <c r="N8" s="2" t="str">
         <v>168947|92843</v>
       </c>
-      <c r="O8" s="1" t="str">
+      <c r="O8" s="2" t="str">
         <v>0|0|0||0|0|0</v>
       </c>
       <c r="P8" s="3" t="str">
         <v>0|0|0||0|0|0</v>
       </c>
-      <c r="Q8" s="1" t="str">
+      <c r="Q8" s="2" t="str">
         <v>1|1|1||1|1|1</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>丧尸</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>3E882EFC</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>284991|268599</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="2" t="str">
         <v>285740|269161|285826</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>150</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>-1</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>285210</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>0.55</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="2" t="str">
         <v>0|50|0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>300</v>
       </c>
-      <c r="L9" s="1" t="str">
+      <c r="L9" s="2" t="str">
         <v>50|50|100</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>100</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>31260</v>
       </c>
-      <c r="O9" s="1" t="str">
+      <c r="O9" s="2" t="str">
         <v>5|0|0</v>
       </c>
-      <c r="P9" s="1" t="str">
+      <c r="P9" s="2" t="str">
         <v>0|-30|180</v>
       </c>
-      <c r="Q9" s="1" t="str">
+      <c r="Q9" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>角色</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="2" t="str">
         <v>3E882EFC</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>285445</v>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="E10" s="2" t="str">
         <v>285336|285372|280652|280671|280723|284685|280699|280780</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>150</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>-1</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>219129|280914|280916</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="2" t="str">
         <v>0.2|0.4|0.3</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J10" s="2" t="str">
         <v>0|50|0||0|50|0||0|50|0</v>
       </c>
-      <c r="K10" s="1" t="str">
+      <c r="K10" s="2" t="str">
         <v>300|300|300</v>
       </c>
-      <c r="L10" s="1" t="str">
+      <c r="L10" s="2" t="str">
         <v>50|50|100||50|50|100||50|50|100</v>
       </c>
-      <c r="M10" s="1" t="str">
+      <c r="M10" s="2" t="str">
         <v>100|100|100</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="N10" s="2" t="str">
         <v>92838|135894|125704</v>
       </c>
-      <c r="O10" s="1" t="str">
+      <c r="O10" s="2" t="str">
         <v>250|0|0||140|0|0||0|0|0</v>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="P10" s="2" t="str">
         <v>0|0|0||0|0|-90||0|0|-90</v>
       </c>
-      <c r="Q10" s="1" t="str">
+      <c r="Q10" s="2" t="str">
         <v>0.5|0.5|0.5||0.5|0.5|0.5||1|1|1</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <v>角色</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <v>3E882EFC</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>150</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <v>219129|280914|280916</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <v>0.2|0.4|0.3</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <v>0|50|0||0|50|0||0|50|0</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <v>300|300|300</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <v>50|50|100||50|50|100||50|50|100</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <v>100|100|100</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <v>92838|135894|125704</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <v>250|0|0||140|0|0||0|0|0</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <v>0|0|0||0|0|-90||0|0|-90</v>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <v>0.5|0.5|0.5||0.5|0.5|0.5||1|1|1</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
